--- a/GetCompanyDetailsFromRecruitNavi/01.Config/03.ProcessInstruction_Unstructured.xlsx
+++ b/GetCompanyDetailsFromRecruitNavi/01.Config/03.ProcessInstruction_Unstructured.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/92aee0bfe262aabc/Documents/周平用プログラム/GetCompanyDetailsFromRecruitNavi/GetCompanyDetailsFromRecruitNavi_20210620/01.Config/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/92aee0bfe262aabc/Documents/周平用プログラム/GetCompanyDetailsFromRecruitNavi/01.Config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{7E3C17C8-A9E6-42D6-97D0-B30B88CAAFD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{731EA92F-EA8C-4D56-A618-68ADF54509C7}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="13_ncr:1_{7E3C17C8-A9E6-42D6-97D0-B30B88CAAFD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE13BA8D-96FF-40D6-94BF-8DAC27DC182E}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8190" yWindow="470" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instruction" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="43">
   <si>
     <t>Matches</t>
   </si>
@@ -63,21 +63,9 @@
     <t>Condition3</t>
   </si>
   <si>
-    <t>PhoneNumber</t>
-  </si>
-  <si>
-    <t>PostalCode</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
     <t>ElementExist</t>
   </si>
   <si>
-    <t>CompanyName</t>
-  </si>
-  <si>
     <t>((?:旭川|伊達|石狩|盛岡|奥州|田村|南相馬|那須塩原|東村山|武蔵村山|羽村|十日町|上越|富山|野々市|大町|蒲郡|四日市|姫路|大和郡山|廿日市|下松|岩国|田川|大村)市|.+?郡(?:玉村|大町|.+?)[町村]|.+?市.+?区|.+?[市区町村])(.+)</t>
   </si>
   <si>
@@ -118,13 +106,61 @@
   </si>
   <si>
     <t>*/社名</t>
+  </si>
+  <si>
+    <t>住所</t>
+  </si>
+  <si>
+    <t>電話番号</t>
+  </si>
+  <si>
+    <t>郵便番号</t>
+  </si>
+  <si>
+    <t>社名</t>
+  </si>
+  <si>
+    <t>業種</t>
+  </si>
+  <si>
+    <t>事業内容</t>
+  </si>
+  <si>
+    <t>設立</t>
+  </si>
+  <si>
+    <t>代表者</t>
+  </si>
+  <si>
+    <t>資本金</t>
+  </si>
+  <si>
+    <t>従業員数</t>
+  </si>
+  <si>
+    <t>*/業種</t>
+  </si>
+  <si>
+    <t>*/事業内容</t>
+  </si>
+  <si>
+    <t>*/設立</t>
+  </si>
+  <si>
+    <t>*/代表者</t>
+  </si>
+  <si>
+    <t>*/資本金</t>
+  </si>
+  <si>
+    <t>*/従業員数</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,16 +168,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF383838"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF383838"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -149,12 +206,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFE1E1E1"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFE1E1E1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -435,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -474,33 +546,33 @@
         <v>11</v>
       </c>
       <c r="H1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="K1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
         <v>0</v>
@@ -509,91 +581,91 @@
         <v>4</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s">
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F5" t="s">
         <v>0</v>
@@ -602,29 +674,131 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>16</v>
+    <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>2</v>
       </c>
-      <c r="B7" t="s">
-        <v>25</v>
+      <c r="B13" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
